--- a/run/20250411_152655_炼沥 捞仿.xlsx
+++ b/run/20250411_152655_炼沥 捞仿.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="182">
   <si>
     <t>상태</t>
   </si>
@@ -80,6 +80,141 @@
     <t>가격 조정 대상</t>
   </si>
   <si>
+    <t>대용량 롤 여과솜 매트 필터 수족관 어항 여과재 1M 10CM</t>
+  </si>
+  <si>
+    <t>11562237310</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/51881793575</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>포함</t>
+  </si>
+  <si>
+    <t>스마트스토어만</t>
+  </si>
+  <si>
+    <t>공룡 이중 비눗방울 대왕 버블건 비누방울총</t>
+  </si>
+  <si>
+    <t>11721820338</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/46633769860</t>
+  </si>
+  <si>
+    <t>휴대용 1인용 접이식 야외 모기장 텐트 캠핑 간이침대-블루</t>
+  </si>
+  <si>
+    <t>11672012727</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/47606841410</t>
+  </si>
+  <si>
+    <t>발리송 카람빗 칼 나이프 무기 모델 게임 금속 장난감 카타나 키</t>
+  </si>
+  <si>
+    <t>11635708656</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/48356185219</t>
+  </si>
+  <si>
+    <t>슬림형 구명조끼 슬림핏 경량 부력조끼 얇은-사이즈S</t>
+  </si>
+  <si>
+    <t>11726123431</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/53100632467</t>
+  </si>
+  <si>
+    <t>미술학원 펜꽂이 연필통 색연필정리함 대용량 대형</t>
+  </si>
+  <si>
+    <t>11509782600</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/45174413698</t>
+  </si>
+  <si>
+    <t>화분 잔디엣지 경계목 흙막이 화분분리대 잔디 경계 플라스틱 10cm 폭 1m 신소재로 도톰하게</t>
+  </si>
+  <si>
+    <t>11515866894</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/43242965725</t>
+  </si>
+  <si>
+    <t>그린부화기 자동 자동 병아리 오리 거위 계란 닭 계란 24개 부화기,</t>
+  </si>
+  <si>
+    <t>11562419523</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/38241303219</t>
+  </si>
+  <si>
+    <t>현관문 도어 체인 걸쇠 안전고리 현관 이중 잠금장치</t>
+  </si>
+  <si>
+    <t>11507511248</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/41067562385</t>
+  </si>
+  <si>
+    <t>7cm통굽슬리퍼 사무실 무소음 키높이 EVA구름슬리퍼 여성용 6종</t>
+  </si>
+  <si>
+    <t>11730974293</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/46139940239</t>
+  </si>
+  <si>
+    <t>24 25 손흥민유니폼 완장 마킹 토트넘 홈 어웨이 키즈 축구 유소년 성인 선수 저지 세트 주니어 7번 상하세</t>
+  </si>
+  <si>
+    <t>11507054559</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/50174447848</t>
+  </si>
+  <si>
+    <t>DIY 미니어처 하우스 꿈의누각</t>
+  </si>
+  <si>
+    <t>11529636317</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/34335205292</t>
+  </si>
+  <si>
+    <t>간편 접이식 샴푸체어옵션1 / 핑크</t>
+  </si>
+  <si>
+    <t>11697710797</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/35694570586</t>
+  </si>
+  <si>
+    <t>타일 졸리컷 가이드 면치기 45도 절단 각도 모서리</t>
+  </si>
+  <si>
+    <t>11567705103</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/49644979341</t>
+  </si>
+  <si>
     <t>강력한 무릎보호대 1+1 등산 헬스 농구 웨이트 무릎아대 S</t>
   </si>
   <si>
@@ -89,22 +224,40 @@
     <t>https://search.shopping.naver.com/catalog/35675942365</t>
   </si>
   <si>
-    <t>8,320</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>포함</t>
-  </si>
-  <si>
-    <t>스마트스토어만</t>
-  </si>
-  <si>
-    <t>미술학원 펜꽂이 연필통 색연필정리함 대용량 대형</t>
-  </si>
-  <si>
-    <t>https://search.shopping.naver.com/catalog/45174413698</t>
+    <t>어린이화장품세트 여자를 위한 어린이 메이크업 장난감 아기 화장품 상자 메이크업 메이 조콩</t>
+  </si>
+  <si>
+    <t>11721701358</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/51947022092</t>
+  </si>
+  <si>
+    <t>발로란트 챔피언스 발리송 나비칼 장난감칼 날없는 안전한 발리송(23CM)</t>
+  </si>
+  <si>
+    <t>11635568453</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/52342876584</t>
+  </si>
+  <si>
+    <t>보온 보냉 백팩 아이스백 18L 그레이 가방 박스</t>
+  </si>
+  <si>
+    <t>11594484184</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/41236973896</t>
+  </si>
+  <si>
+    <t>짱구 대형 스티커 캐리어 꾸미기 방수 캐릭터</t>
+  </si>
+  <si>
+    <t>11722149447</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/53878060348</t>
   </si>
   <si>
     <t>2425 레알마드리드유니폼 벤제마 레알 벨링엄 홈 성인 풀세트</t>
@@ -125,94 +278,301 @@
     <t>https://search.shopping.naver.com/catalog/46318084011</t>
   </si>
   <si>
-    <t>24 25 손흥민유니폼 완장 마킹 토트넘 홈 어웨이 키즈 축구 유소년 성인 선수 저지 세트 주니어 7번 상하세</t>
-  </si>
-  <si>
-    <t>11507054559</t>
-  </si>
-  <si>
-    <t>https://search.shopping.naver.com/catalog/50174447848</t>
-  </si>
-  <si>
-    <t>대용량 롤 여과솜 매트 필터 수족관 어항 여과재 1M 10CM</t>
-  </si>
-  <si>
-    <t>11562237310</t>
-  </si>
-  <si>
-    <t>https://search.shopping.naver.com/catalog/51881793575</t>
-  </si>
-  <si>
-    <t>DIY 미니어처 하우스 꿈의누각</t>
-  </si>
-  <si>
-    <t>11529636317</t>
-  </si>
-  <si>
-    <t>https://search.shopping.naver.com/catalog/34335205292</t>
-  </si>
-  <si>
-    <t>간편 접이식 샴푸체어옵션1 / 핑크</t>
-  </si>
-  <si>
-    <t>11697710797</t>
-  </si>
-  <si>
-    <t>https://search.shopping.naver.com/catalog/35694570586</t>
-  </si>
-  <si>
-    <t>타일 졸리컷 가이드 면치기 45도 절단 각도 모서리</t>
-  </si>
-  <si>
-    <t>11567705103</t>
-  </si>
-  <si>
-    <t>https://search.shopping.naver.com/catalog/49644979341</t>
-  </si>
-  <si>
-    <t>화분 잔디엣지 경계목 흙막이 화분분리대 잔디 경계 플라스틱 10cm 폭 1m 신소재로 도톰하게</t>
-  </si>
-  <si>
-    <t>11515866894</t>
-  </si>
-  <si>
-    <t>https://search.shopping.naver.com/catalog/43242965725</t>
-  </si>
-  <si>
-    <t>휴대용 1인용 접이식 야외 모기장 텐트 캠핑 간이침대-블루</t>
-  </si>
-  <si>
-    <t>11672012727</t>
-  </si>
-  <si>
-    <t>https://search.shopping.naver.com/catalog/47606841410</t>
-  </si>
-  <si>
-    <t>현관문 도어 체인 걸쇠 안전고리 현관 이중 잠금장치</t>
-  </si>
-  <si>
-    <t>11507511248</t>
-  </si>
-  <si>
-    <t>https://search.shopping.naver.com/catalog/41067562385</t>
-  </si>
-  <si>
-    <t>그린부화기 자동 자동 병아리 오리 거위 계란 닭 계란 24개 부화기,</t>
-  </si>
-  <si>
-    <t>11562419523</t>
-  </si>
-  <si>
-    <t>https://search.shopping.naver.com/catalog/38241303219</t>
-  </si>
-  <si>
-    <t>발로란트 챔피언스 발리송 나비칼 장난감칼 날없는 안전한 발리송(23CM)</t>
-  </si>
-  <si>
-    <t>11635568453</t>
-  </si>
-  <si>
-    <t>https://search.shopping.naver.com/catalog/52342876584</t>
+    <t>게임 시간 타이머 폭탄게임 시한 돌리기 물폭탄 폭탄</t>
+  </si>
+  <si>
+    <t>11709574470</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/35492087515</t>
+  </si>
+  <si>
+    <t>해바라기 버블건 전동 비눗방울 꽃 놀이 자동 버블 머신</t>
+  </si>
+  <si>
+    <t>11705495827</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/52102264210</t>
+  </si>
+  <si>
+    <t>차량용 무선충전패드 초고속 호환성 충전 무선 충전기-USB 30cm 20W</t>
+  </si>
+  <si>
+    <t>11529767153</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/47704821024</t>
+  </si>
+  <si>
+    <t>봉잡기스틱 순발력게임 봉잡기 봉떨어지는기계 반응속도</t>
+  </si>
+  <si>
+    <t>11702329092</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/53077565852</t>
+  </si>
+  <si>
+    <t>카페 유니폼 조끼 앞치마 작업복 직원 알바생 방수 유니폼</t>
+  </si>
+  <si>
+    <t>11738663269</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/45756062829</t>
+  </si>
+  <si>
+    <t>토르 묠니르 토르망치 마블 장난감 어밴져스망치 할로윈 선물</t>
+  </si>
+  <si>
+    <t>11636170490</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/48811194349</t>
+  </si>
+  <si>
+    <t>해리포터 지팡이 마법사 LED 마법봉 호그와트 굿즈-1</t>
+  </si>
+  <si>
+    <t>11507231113</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/48602527326</t>
+  </si>
+  <si>
+    <t>행사용 대형 버블건 69홀 로켓게틀링 비눗방울총 버블건-핑크</t>
+  </si>
+  <si>
+    <t>11713298090</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/49256655583</t>
+  </si>
+  <si>
+    <t>대형 실리콘 매트 단열 주방 방수 오염방지 식탁-40x60cm</t>
+  </si>
+  <si>
+    <t>11597112816</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/49898193344</t>
+  </si>
+  <si>
+    <t>60p 마카롱 물고기 자석 낚시놀이 RU</t>
+  </si>
+  <si>
+    <t>11709684597</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/41457457492</t>
+  </si>
+  <si>
+    <t>방한모자 페이크 퍼 키치 버니햇 토끼모자 여성 겨울 부드러운 귀달이 모자 방한모</t>
+  </si>
+  <si>
+    <t>11529401534</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/43049856571</t>
+  </si>
+  <si>
+    <t>고양이 롱쿠션 인형 바디필로우 블랙모찌-50cm</t>
+  </si>
+  <si>
+    <t>11636213795</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/48072902062</t>
+  </si>
+  <si>
+    <t>어린이 소꿉놀이 음식모형 부엌놀이 장난감 선물세트 주방 요리 모형 음식 용품</t>
+  </si>
+  <si>
+    <t>11709997156</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/40478648692</t>
+  </si>
+  <si>
+    <t>발로란트 요루의 스타일리시 발리송 버터플라이 빗 나비칼</t>
+  </si>
+  <si>
+    <t>11596544936</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/42623515367</t>
+  </si>
+  <si>
+    <t>엎드려 해먹 튜브 암튜브 인스타 휴양지 수영장 워터베드</t>
+  </si>
+  <si>
+    <t>11725519821</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/53737263566</t>
+  </si>
+  <si>
+    <t>유니폼 축구복 세트 나라별 어린이 축구유니폼 초등학생</t>
+  </si>
+  <si>
+    <t>11567441296</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/53003196728</t>
+  </si>
+  <si>
+    <t>2단 컵 선반 거치대 머그컵 정리함 보관함 주방정리</t>
+  </si>
+  <si>
+    <t>11734937010</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/51706229554</t>
+  </si>
+  <si>
+    <t>콧물 카피바라 인형 안고자는 귀여운 모찌 베개 애착 쿠션 베개 베개커버-25CM</t>
+  </si>
+  <si>
+    <t>11713377583</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/47508845759</t>
+  </si>
+  <si>
+    <t>인테리어 각티슈 휴지 케이스 수납정리함</t>
+  </si>
+  <si>
+    <t>11672940830</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/46737254269</t>
+  </si>
+  <si>
+    <t>몬스터아츠 피규어 메카</t>
+  </si>
+  <si>
+    <t>11730583327</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/45285989146</t>
+  </si>
+  <si>
+    <t>어린이 놀이 전동 물총 장난감 워터건</t>
+  </si>
+  <si>
+    <t>11712941339</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/40484957590</t>
+  </si>
+  <si>
+    <t>M416 장난감총 너프건 당근총 에어소프트건 소총 탄피배출 따발총-옵션1</t>
+  </si>
+  <si>
+    <t>11702090994</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/51929982303</t>
+  </si>
+  <si>
+    <t>바스락 끈 버킷햇 벙거지 여성 봄 여름 얇은 챙모자 5컬러</t>
+  </si>
+  <si>
+    <t>11706118155</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/39348430619</t>
+  </si>
+  <si>
+    <t>도트사이트 레이저 표적지시기 전술 조준기 포인트-블랙</t>
+  </si>
+  <si>
+    <t>11706197466</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/45211393615</t>
+  </si>
+  <si>
+    <t>피복 코팅액 전선절연본드 절연테이프 방수 테이프 고무 수리 30ml 블랙</t>
+  </si>
+  <si>
+    <t>11705367847</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/53705937406</t>
+  </si>
+  <si>
+    <t>욕실 화장실 벽보드 붙이는타일 장판 싱크대 붙이는 방수 데코</t>
+  </si>
+  <si>
+    <t>11578790273</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/50504036503</t>
+  </si>
+  <si>
+    <t>무소음 농구공 조용한 소리안나는 실내 스펀지 7호</t>
+  </si>
+  <si>
+    <t>11697937480</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/44547613235</t>
+  </si>
+  <si>
+    <t>어린이 여아 손목시계 초등학생 선물 팔지 세트</t>
+  </si>
+  <si>
+    <t>11726484826</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/25840029857</t>
+  </si>
+  <si>
+    <t>임시 치아 홈메우기 틀니 가짜 인공 이빨 붙이는 보철제 틀니접착제 키트 치과 보수 커버</t>
+  </si>
+  <si>
+    <t>11701838464</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/48675284565</t>
+  </si>
+  <si>
+    <t>허리 아랫배 보온주머니 찜질팩</t>
+  </si>
+  <si>
+    <t>11529382216</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/42700436022</t>
+  </si>
+  <si>
+    <t>야채탈수기 음식짤순이 오이지 야채 짤순이</t>
+  </si>
+  <si>
+    <t>11528709762</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/45099388648</t>
+  </si>
+  <si>
+    <t>베이킹 케이크 빵 제빵 틀 S</t>
+  </si>
+  <si>
+    <t>11515787081</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/45981181139</t>
+  </si>
+  <si>
+    <t>유아우비 키즈레인코트 초등비옷 주니어비옷 우의</t>
+  </si>
+  <si>
+    <t>11705646115</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/53512452893</t>
   </si>
 </sst>
 </file>
@@ -225,7 +585,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,11 +596,6 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -388,7 +743,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +753,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,147 +1073,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -860,6 +1216,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1216,10 +1574,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1227,7 +1585,7 @@
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="21.875" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -1293,44 +1651,38 @@
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
+      <c r="I2">
+        <v>6500</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>3000</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2"/>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
         <v>5</v>
@@ -1344,46 +1696,40 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2">
-        <v>11509782600</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="6">
-        <v>9520</v>
-      </c>
+      <c r="F3" s="3"/>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
+      <c r="I3">
+        <v>9400</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3"/>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q3" t="s">
         <v>5</v>
@@ -1399,44 +1745,38 @@
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="6">
-        <v>19240</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
-        <v>21</v>
+      <c r="I4">
+        <v>17450</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4"/>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="s">
         <v>5</v>
@@ -1452,44 +1792,38 @@
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="7">
-        <v>167730</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
-        <v>21</v>
+      <c r="I5">
+        <v>10000</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="9">
-        <v>113800</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5"/>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q5" t="s">
         <v>5</v>
@@ -1505,44 +1839,38 @@
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="6">
-        <v>16630</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
-        <v>21</v>
+      <c r="I6">
+        <v>15600</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q6" t="s">
         <v>5</v>
@@ -1558,44 +1886,38 @@
       <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="6">
-        <v>38450</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
-        <v>21</v>
+      <c r="I7">
+        <v>9520</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="10">
-        <v>28900</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7"/>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q7" t="s">
         <v>5</v>
@@ -1611,44 +1933,38 @@
       <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="6">
-        <v>30160</v>
-      </c>
+      <c r="F8" s="3"/>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
-        <v>21</v>
+      <c r="I8">
+        <v>16950</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8"/>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="s">
         <v>5</v>
@@ -1664,44 +1980,38 @@
       <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="6">
-        <v>30150</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
-      <c r="I9" t="s">
-        <v>21</v>
+      <c r="I9">
+        <v>30200</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9"/>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" t="s">
         <v>5</v>
@@ -1717,44 +2027,38 @@
       <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="6">
-        <v>16210</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
-      <c r="I10" t="s">
-        <v>21</v>
+      <c r="I10">
+        <v>7900</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q10" t="s">
         <v>5</v>
@@ -1770,44 +2074,38 @@
       <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="6">
-        <v>65850</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
-      <c r="I11" t="s">
-        <v>21</v>
+      <c r="I11">
+        <v>10000</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="11">
-        <v>48900</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11"/>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q11" t="s">
         <v>5</v>
@@ -1823,44 +2121,38 @@
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="6">
-        <v>16670</v>
-      </c>
+      <c r="F12" s="3"/>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
-      <c r="I12" t="s">
-        <v>21</v>
+      <c r="I12">
+        <v>14300</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12"/>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q12" t="s">
         <v>5</v>
@@ -1876,44 +2168,38 @@
       <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="6">
-        <v>12400</v>
-      </c>
+      <c r="F13" s="3"/>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
-      <c r="I13" t="s">
-        <v>21</v>
+      <c r="I13">
+        <v>30160</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q13" t="s">
         <v>5</v>
@@ -1929,44 +2215,38 @@
       <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="6">
-        <v>143440</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
-      <c r="I14" t="s">
-        <v>21</v>
+      <c r="I14">
+        <v>21000</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="11">
-        <v>100000</v>
-      </c>
-      <c r="L14" s="12">
-        <v>5000</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q14" t="s">
         <v>5</v>
@@ -1982,177 +2262,1811 @@
       <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="6">
-        <v>10600</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
-      <c r="I15" t="s">
-        <v>21</v>
+      <c r="I15">
+        <v>9500</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15"/>
       <c r="M15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>6000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>18000</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>10480</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18" s="9"/>
+      <c r="M18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>19430</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>6700</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>12200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>53930</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>31000</v>
+      </c>
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="Q15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="3:12">
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="8"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="3:5">
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="3:5">
-      <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="3:5">
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="5"/>
+      <c r="C24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>9300</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>17200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>11000</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" s="6">
+        <v>26</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27" s="6">
+        <v>11000</v>
+      </c>
+      <c r="J27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>12100</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>10890</v>
+      </c>
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>11200</v>
+      </c>
+      <c r="J30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>16800</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>9000</v>
+      </c>
+      <c r="J32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>10000</v>
+      </c>
+      <c r="J33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>7800</v>
+      </c>
+      <c r="J34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>13500</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>12680</v>
+      </c>
+      <c r="J36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P36" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>10000</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>11300</v>
+      </c>
+      <c r="J38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>14000</v>
+      </c>
+      <c r="J39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>8600</v>
+      </c>
+      <c r="J40" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>11690</v>
+      </c>
+      <c r="J41" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" t="s">
+        <v>21</v>
+      </c>
+      <c r="P41" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>12500</v>
+      </c>
+      <c r="J42" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" t="s">
+        <v>21</v>
+      </c>
+      <c r="P42" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>16790</v>
+      </c>
+      <c r="J43" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <v>21990</v>
+      </c>
+      <c r="J44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" t="s">
+        <v>21</v>
+      </c>
+      <c r="P44" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
+      <c r="I45">
+        <v>13340</v>
+      </c>
+      <c r="J45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" t="s">
+        <v>21</v>
+      </c>
+      <c r="P45" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" t="s">
+        <v>154</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>13000</v>
+      </c>
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" t="s">
+        <v>157</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="I47">
+        <v>7000</v>
+      </c>
+      <c r="J47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" t="s">
+        <v>160</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48">
+        <v>10460</v>
+      </c>
+      <c r="J48" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" t="s">
+        <v>163</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>10</v>
+      </c>
+      <c r="I49">
+        <v>13000</v>
+      </c>
+      <c r="J49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" t="s">
+        <v>166</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="I50">
+        <v>8000</v>
+      </c>
+      <c r="J50" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" t="s">
+        <v>169</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>10</v>
+      </c>
+      <c r="I51">
+        <v>7500</v>
+      </c>
+      <c r="J51" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="I52">
+        <v>15370</v>
+      </c>
+      <c r="J52" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" t="s">
+        <v>21</v>
+      </c>
+      <c r="P52" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" t="s">
+        <v>175</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>10</v>
+      </c>
+      <c r="I53">
+        <v>7500</v>
+      </c>
+      <c r="J53" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" t="s">
+        <v>178</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>10</v>
+      </c>
+      <c r="I54">
+        <v>10000</v>
+      </c>
+      <c r="J54" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E55" t="s">
+        <v>181</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>10</v>
+      </c>
+      <c r="I55">
+        <v>16000</v>
+      </c>
+      <c r="J55" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" t="s">
+        <v>21</v>
+      </c>
+      <c r="P55" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://search.shopping.naver.com/catalog/35675942365" tooltip="https://search.shopping.naver.com/catalog/35675942365"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://search.shopping.naver.com/catalog/45174413698"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://search.shopping.naver.com/catalog/48029400236"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://search.shopping.naver.com/catalog/46318084011"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://search.shopping.naver.com/catalog/50174447848"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://search.shopping.naver.com/catalog/51881793575"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://search.shopping.naver.com/catalog/34335205292"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://search.shopping.naver.com/catalog/35694570586"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://search.shopping.naver.com/catalog/49644979341"/>
-    <hyperlink ref="E11" r:id="rId10" display="https://search.shopping.naver.com/catalog/43242965725"/>
-    <hyperlink ref="E12" r:id="rId11" display="https://search.shopping.naver.com/catalog/47606841410"/>
-    <hyperlink ref="E13" r:id="rId12" display="https://search.shopping.naver.com/catalog/41067562385"/>
-    <hyperlink ref="E14" r:id="rId13" display="https://search.shopping.naver.com/catalog/38241303219"/>
-    <hyperlink ref="E15" r:id="rId14" display="https://search.shopping.naver.com/catalog/52342876584"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
